--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace1\SDET34L1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF9D875-1DBE-4FBF-8F52-BB8295FC3711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C235B7C-91DC-4F8F-9CC9-55EDB0B3747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7128" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
   <si>
     <t>TestCase</t>
   </si>
@@ -2110,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C643C1DC-214E-4573-952A-583AC0C353D6}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,9 +2162,6 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64"/>
-      <c r="B3" s="34" t="s">
-        <v>108</v>
-      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2176,6 +2173,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
